--- a/xlsx/country_comparison/global_policies_share.xlsx
+++ b/xlsx/country_comparison/global_policies_share.xlsx
@@ -47,7 +47,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU)</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
   </si>
 </sst>
 </file>
@@ -404,19 +404,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.408163265306122</v>
+        <v>0.602409638554217</v>
       </c>
       <c r="C2" t="n">
-        <v>0.409090909090909</v>
+        <v>0.459459459459459</v>
       </c>
       <c r="D2" t="n">
-        <v>0.631578947368421</v>
+        <v>0.489130434782609</v>
       </c>
       <c r="E2" t="n">
-        <v>0.538461538461539</v>
+        <v>0.703703703703704</v>
       </c>
       <c r="F2" t="n">
-        <v>0.366666666666667</v>
+        <v>0.450592885375494</v>
       </c>
     </row>
     <row r="3">
@@ -424,19 +424,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.617021276595745</v>
+        <v>0.740740740740741</v>
       </c>
       <c r="C3" t="n">
-        <v>0.5</v>
+        <v>0.699029126213592</v>
       </c>
       <c r="D3" t="n">
-        <v>0.777777777777778</v>
+        <v>0.675</v>
       </c>
       <c r="E3" t="n">
-        <v>0.682926829268293</v>
+        <v>0.708333333333333</v>
       </c>
       <c r="F3" t="n">
-        <v>0.604166666666667</v>
+        <v>0.568854568854569</v>
       </c>
     </row>
     <row r="4">
@@ -444,19 +444,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.428571428571429</v>
+        <v>0.608695652173913</v>
       </c>
       <c r="C4" t="n">
-        <v>0.863636363636364</v>
+        <v>0.695652173913043</v>
       </c>
       <c r="D4" t="n">
-        <v>0.727272727272727</v>
+        <v>0.756410256410256</v>
       </c>
       <c r="E4" t="n">
-        <v>0.657894736842105</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F4" t="n">
-        <v>0.627450980392157</v>
+        <v>0.627390499691548</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +464,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.755102040816327</v>
+        <v>0.866666666666667</v>
       </c>
       <c r="C5" t="n">
-        <v>0.764705882352941</v>
+        <v>0.823529411764706</v>
       </c>
       <c r="D5" t="n">
-        <v>0.869565217391304</v>
+        <v>0.764044943820225</v>
       </c>
       <c r="E5" t="n">
-        <v>0.842105263157895</v>
+        <v>0.875</v>
       </c>
       <c r="F5" t="n">
-        <v>0.616666666666667</v>
+        <v>0.629608294930876</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.867924528301887</v>
+        <v>0.884210526315789</v>
       </c>
       <c r="C6" t="n">
-        <v>0.92</v>
+        <v>0.803149606299213</v>
       </c>
       <c r="D6" t="n">
-        <v>0.95</v>
+        <v>0.875</v>
       </c>
       <c r="E6" t="n">
-        <v>0.901960784313726</v>
+        <v>0.821428571428571</v>
       </c>
       <c r="F6" t="n">
-        <v>0.584615384615385</v>
+        <v>0.62061521856449</v>
       </c>
     </row>
     <row r="7">
@@ -504,19 +504,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.65</v>
+        <v>0.641304347826087</v>
       </c>
       <c r="C7" t="n">
-        <v>0.608695652173913</v>
+        <v>0.561151079136691</v>
       </c>
       <c r="D7" t="n">
-        <v>0.65</v>
+        <v>0.557894736842105</v>
       </c>
       <c r="E7" t="n">
-        <v>0.723404255319149</v>
+        <v>0.62962962962963</v>
       </c>
       <c r="F7" t="n">
-        <v>0.372881355932203</v>
+        <v>0.466425619834711</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_share.xlsx
+++ b/xlsx/country_comparison/global_policies_share.xlsx
@@ -404,19 +404,19 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>0.602409638554217</v>
+        <v>0.528436018957346</v>
       </c>
       <c r="C2" t="n">
-        <v>0.459459459459459</v>
+        <v>0.435452793834297</v>
       </c>
       <c r="D2" t="n">
-        <v>0.489130434782609</v>
+        <v>0.601965601965602</v>
       </c>
       <c r="E2" t="n">
-        <v>0.703703703703704</v>
+        <v>0.587301587301587</v>
       </c>
       <c r="F2" t="n">
-        <v>0.450592885375494</v>
+        <v>0.452247191011236</v>
       </c>
     </row>
     <row r="3">
@@ -424,19 +424,19 @@
         <v>7</v>
       </c>
       <c r="B3" t="n">
-        <v>0.740740740740741</v>
+        <v>0.666666666666667</v>
       </c>
       <c r="C3" t="n">
-        <v>0.699029126213592</v>
+        <v>0.695364238410596</v>
       </c>
       <c r="D3" t="n">
-        <v>0.675</v>
+        <v>0.760526315789474</v>
       </c>
       <c r="E3" t="n">
-        <v>0.708333333333333</v>
+        <v>0.6953125</v>
       </c>
       <c r="F3" t="n">
-        <v>0.568854568854569</v>
+        <v>0.569230769230769</v>
       </c>
     </row>
     <row r="4">
@@ -444,19 +444,19 @@
         <v>8</v>
       </c>
       <c r="B4" t="n">
-        <v>0.608695652173913</v>
+        <v>0.595693779904306</v>
       </c>
       <c r="C4" t="n">
-        <v>0.695652173913043</v>
+        <v>0.718095238095238</v>
       </c>
       <c r="D4" t="n">
-        <v>0.756410256410256</v>
+        <v>0.786885245901639</v>
       </c>
       <c r="E4" t="n">
-        <v>0.821428571428571</v>
+        <v>0.844036697247706</v>
       </c>
       <c r="F4" t="n">
-        <v>0.627390499691548</v>
+        <v>0.627764127764128</v>
       </c>
     </row>
     <row r="5">
@@ -464,19 +464,19 @@
         <v>9</v>
       </c>
       <c r="B5" t="n">
-        <v>0.866666666666667</v>
+        <v>0.792941176470588</v>
       </c>
       <c r="C5" t="n">
-        <v>0.823529411764706</v>
+        <v>0.794117647058824</v>
       </c>
       <c r="D5" t="n">
-        <v>0.764044943820225</v>
+        <v>0.807228915662651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.875</v>
+        <v>0.816120906801008</v>
       </c>
       <c r="F5" t="n">
-        <v>0.629608294930876</v>
+        <v>0.630372492836676</v>
       </c>
     </row>
     <row r="6">
@@ -484,19 +484,19 @@
         <v>10</v>
       </c>
       <c r="B6" t="n">
-        <v>0.884210526315789</v>
+        <v>0.891304347826087</v>
       </c>
       <c r="C6" t="n">
-        <v>0.803149606299213</v>
+        <v>0.847790507364976</v>
       </c>
       <c r="D6" t="n">
-        <v>0.875</v>
+        <v>0.906040268456376</v>
       </c>
       <c r="E6" t="n">
-        <v>0.821428571428571</v>
+        <v>0.87378640776699</v>
       </c>
       <c r="F6" t="n">
-        <v>0.62061521856449</v>
+        <v>0.6211714132187</v>
       </c>
     </row>
     <row r="7">
@@ -504,19 +504,19 @@
         <v>11</v>
       </c>
       <c r="B7" t="n">
-        <v>0.641304347826087</v>
+        <v>0.57906976744186</v>
       </c>
       <c r="C7" t="n">
-        <v>0.561151079136691</v>
+        <v>0.608247422680412</v>
       </c>
       <c r="D7" t="n">
-        <v>0.557894736842105</v>
+        <v>0.618556701030928</v>
       </c>
       <c r="E7" t="n">
-        <v>0.62962962962963</v>
+        <v>0.667359667359667</v>
       </c>
       <c r="F7" t="n">
-        <v>0.466425619834711</v>
+        <v>0.465809768637532</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_share.xlsx
+++ b/xlsx/country_comparison/global_policies_share.xlsx
@@ -12,11 +12,17 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve"/>
   </si>
   <si>
+    <t xml:space="preserve">United States</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Europe</t>
+  </si>
+  <si>
     <t xml:space="preserve">France</t>
   </si>
   <si>
@@ -29,9 +35,6 @@
     <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
-    <t xml:space="preserve">United States</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
@@ -47,7 +50,7 @@
     <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
   </si>
   <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion for each human</t>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
   </si>
 </sst>
 </file>
@@ -398,125 +401,146 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.528436018957346</v>
+        <v>0.445165647241385</v>
       </c>
       <c r="C2" t="n">
-        <v>0.435452793834297</v>
+        <v>0.519784123197685</v>
       </c>
       <c r="D2" t="n">
-        <v>0.601965601965602</v>
+        <v>0.538272957724401</v>
       </c>
       <c r="E2" t="n">
-        <v>0.587301587301587</v>
+        <v>0.42192097757509</v>
       </c>
       <c r="F2" t="n">
-        <v>0.452247191011236</v>
+        <v>0.623992886988593</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0.629002808743572</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.666666666666667</v>
+        <v>0.565484343994484</v>
       </c>
       <c r="C3" t="n">
-        <v>0.695364238410596</v>
+        <v>0.694703338925022</v>
       </c>
       <c r="D3" t="n">
-        <v>0.760526315789474</v>
+        <v>0.696738300729926</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6953125</v>
+        <v>0.663105221608136</v>
       </c>
       <c r="F3" t="n">
-        <v>0.569230769230769</v>
+        <v>0.764082500232851</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.682020895993832</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.595693779904306</v>
+        <v>0.615412381763385</v>
       </c>
       <c r="C4" t="n">
-        <v>0.718095238095238</v>
+        <v>0.728100139398786</v>
       </c>
       <c r="D4" t="n">
-        <v>0.786885245901639</v>
+        <v>0.595780185866169</v>
       </c>
       <c r="E4" t="n">
-        <v>0.844036697247706</v>
+        <v>0.722549697453689</v>
       </c>
       <c r="F4" t="n">
-        <v>0.627764127764128</v>
+        <v>0.81292373408132</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0.835305897365594</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.792941176470588</v>
+        <v>0.615539662201057</v>
       </c>
       <c r="C5" t="n">
-        <v>0.794117647058824</v>
+        <v>0.794190438711587</v>
       </c>
       <c r="D5" t="n">
-        <v>0.807228915662651</v>
+        <v>0.815787653966067</v>
       </c>
       <c r="E5" t="n">
-        <v>0.816120906801008</v>
+        <v>0.77283009201333</v>
       </c>
       <c r="F5" t="n">
-        <v>0.630372492836676</v>
+        <v>0.809079647356019</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.843401261799519</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.891304347826087</v>
+        <v>0.610092195899231</v>
       </c>
       <c r="C6" t="n">
-        <v>0.847790507364976</v>
+        <v>0.87440141332867</v>
       </c>
       <c r="D6" t="n">
-        <v>0.906040268456376</v>
+        <v>0.906115344887832</v>
       </c>
       <c r="E6" t="n">
-        <v>0.87378640776699</v>
+        <v>0.84924108834717</v>
       </c>
       <c r="F6" t="n">
-        <v>0.6211714132187</v>
+        <v>0.915594976338787</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.860658710198207</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.57906976744186</v>
+        <v>0.462674568235542</v>
       </c>
       <c r="C7" t="n">
-        <v>0.608247422680412</v>
+        <v>0.622825212244565</v>
       </c>
       <c r="D7" t="n">
-        <v>0.618556701030928</v>
+        <v>0.595663474239895</v>
       </c>
       <c r="E7" t="n">
-        <v>0.667359667359667</v>
+        <v>0.6173402579423</v>
       </c>
       <c r="F7" t="n">
-        <v>0.465809768637532</v>
+        <v>0.656195000018682</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0.675914940239378</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_share.xlsx
+++ b/xlsx/country_comparison/global_policies_share.xlsx
@@ -410,22 +410,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.445165647241385</v>
+        <v>0.455585370610103</v>
       </c>
       <c r="C2" t="n">
-        <v>0.519784123197685</v>
+        <v>0.52799504828657</v>
       </c>
       <c r="D2" t="n">
-        <v>0.538272957724401</v>
+        <v>0.531754302117697</v>
       </c>
       <c r="E2" t="n">
-        <v>0.42192097757509</v>
+        <v>0.426674360481551</v>
       </c>
       <c r="F2" t="n">
-        <v>0.623992886988593</v>
+        <v>0.626310033566441</v>
       </c>
       <c r="G2" t="n">
-        <v>0.629002808743572</v>
+        <v>0.610472330207481</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +433,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.565484343994484</v>
+        <v>0.577737358122849</v>
       </c>
       <c r="C3" t="n">
-        <v>0.694703338925022</v>
+        <v>0.707094231196826</v>
       </c>
       <c r="D3" t="n">
-        <v>0.696738300729926</v>
+        <v>0.686144900374642</v>
       </c>
       <c r="E3" t="n">
-        <v>0.663105221608136</v>
+        <v>0.693112802218392</v>
       </c>
       <c r="F3" t="n">
-        <v>0.764082500232851</v>
+        <v>0.776553512725913</v>
       </c>
       <c r="G3" t="n">
-        <v>0.682020895993832</v>
+        <v>0.71539072785935</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +456,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.615412381763385</v>
+        <v>0.617437661408779</v>
       </c>
       <c r="C4" t="n">
-        <v>0.728100139398786</v>
+        <v>0.730750170695634</v>
       </c>
       <c r="D4" t="n">
-        <v>0.595780185866169</v>
+        <v>0.581826077993604</v>
       </c>
       <c r="E4" t="n">
-        <v>0.722549697453689</v>
+        <v>0.730479419208702</v>
       </c>
       <c r="F4" t="n">
-        <v>0.81292373408132</v>
+        <v>0.818032378010186</v>
       </c>
       <c r="G4" t="n">
-        <v>0.835305897365594</v>
+        <v>0.831939565915508</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +479,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.615539662201057</v>
+        <v>0.626737397097673</v>
       </c>
       <c r="C5" t="n">
-        <v>0.794190438711587</v>
+        <v>0.795905230694343</v>
       </c>
       <c r="D5" t="n">
-        <v>0.815787653966067</v>
+        <v>0.797539349565692</v>
       </c>
       <c r="E5" t="n">
-        <v>0.77283009201333</v>
+        <v>0.783617202168354</v>
       </c>
       <c r="F5" t="n">
-        <v>0.809079647356019</v>
+        <v>0.809114485254114</v>
       </c>
       <c r="G5" t="n">
-        <v>0.843401261799519</v>
+        <v>0.827928209773063</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +502,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.610092195899231</v>
+        <v>0.619048959139948</v>
       </c>
       <c r="C6" t="n">
-        <v>0.87440141332867</v>
+        <v>0.873966469689942</v>
       </c>
       <c r="D6" t="n">
-        <v>0.906115344887832</v>
+        <v>0.895979258736217</v>
       </c>
       <c r="E6" t="n">
-        <v>0.84924108834717</v>
+        <v>0.857097937005426</v>
       </c>
       <c r="F6" t="n">
-        <v>0.915594976338787</v>
+        <v>0.912833772582112</v>
       </c>
       <c r="G6" t="n">
-        <v>0.860658710198207</v>
+        <v>0.868108589920199</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +525,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.462674568235542</v>
+        <v>0.463168837329091</v>
       </c>
       <c r="C7" t="n">
-        <v>0.622825212244565</v>
+        <v>0.623079158034858</v>
       </c>
       <c r="D7" t="n">
-        <v>0.595663474239895</v>
+        <v>0.581562238065519</v>
       </c>
       <c r="E7" t="n">
-        <v>0.6173402579423</v>
+        <v>0.621347776116407</v>
       </c>
       <c r="F7" t="n">
-        <v>0.656195000018682</v>
+        <v>0.664711397877061</v>
       </c>
       <c r="G7" t="n">
-        <v>0.675914940239378</v>
+        <v>0.667396438072881</v>
       </c>
     </row>
   </sheetData>

--- a/xlsx/country_comparison/global_policies_share.xlsx
+++ b/xlsx/country_comparison/global_policies_share.xlsx
@@ -38,19 +38,23 @@
     <t xml:space="preserve">Cancellation of low-income countries' public debt</t>
   </si>
   <si>
-    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making a country's voting right proportional to its population</t>
+    <t xml:space="preserve">Democratise international institutions (UN, IMF) by making
+a country's voting right proportional to its population</t>
   </si>
   <si>
     <t xml:space="preserve">Removing tariffs on imports from low-income countries</t>
   </si>
   <si>
-    <t xml:space="preserve">A minimum wage in all countries at 50% of local median wage</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Fight tax evasion by creating a global financial register to record ownership of all assets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A maximum wealth limit of $10 billion (US) / €100 million (EU) for each human</t>
+    <t xml:space="preserve">A minimum wage in all countries
+at 50% of local median wage</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fight tax evasion by creating a global financial
+register to record ownership of all assets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A maximum wealth limit of $10 billion
+(US) / €100 million (Eu) for each human</t>
   </si>
 </sst>
 </file>
@@ -410,22 +414,22 @@
         <v>7</v>
       </c>
       <c r="B2" t="n">
-        <v>0.455585370610103</v>
+        <v>0.455724822212522</v>
       </c>
       <c r="C2" t="n">
-        <v>0.52799504828657</v>
+        <v>0.526932121926889</v>
       </c>
       <c r="D2" t="n">
-        <v>0.531754302117697</v>
+        <v>0.531625298077304</v>
       </c>
       <c r="E2" t="n">
-        <v>0.426674360481551</v>
+        <v>0.4266715014713</v>
       </c>
       <c r="F2" t="n">
-        <v>0.626310033566441</v>
+        <v>0.621747780137294</v>
       </c>
       <c r="G2" t="n">
-        <v>0.610472330207481</v>
+        <v>0.610464530962768</v>
       </c>
     </row>
     <row r="3">
@@ -433,22 +437,22 @@
         <v>8</v>
       </c>
       <c r="B3" t="n">
-        <v>0.577737358122849</v>
+        <v>0.577843754383455</v>
       </c>
       <c r="C3" t="n">
-        <v>0.707094231196826</v>
+        <v>0.705292862203935</v>
       </c>
       <c r="D3" t="n">
-        <v>0.686144900374642</v>
+        <v>0.686053015963702</v>
       </c>
       <c r="E3" t="n">
-        <v>0.693112802218392</v>
+        <v>0.693093107414932</v>
       </c>
       <c r="F3" t="n">
-        <v>0.776553512725913</v>
+        <v>0.780834273861822</v>
       </c>
       <c r="G3" t="n">
-        <v>0.71539072785935</v>
+        <v>0.715384966230052</v>
       </c>
     </row>
     <row r="4">
@@ -456,22 +460,22 @@
         <v>9</v>
       </c>
       <c r="B4" t="n">
-        <v>0.617437661408779</v>
+        <v>0.617475309597398</v>
       </c>
       <c r="C4" t="n">
-        <v>0.730750170695634</v>
+        <v>0.730504661209951</v>
       </c>
       <c r="D4" t="n">
-        <v>0.581826077993604</v>
+        <v>0.581791432777007</v>
       </c>
       <c r="E4" t="n">
-        <v>0.730479419208702</v>
+        <v>0.730462131450109</v>
       </c>
       <c r="F4" t="n">
-        <v>0.818032378010186</v>
+        <v>0.797897393781628</v>
       </c>
       <c r="G4" t="n">
-        <v>0.831939565915508</v>
+        <v>0.831944699227053</v>
       </c>
     </row>
     <row r="5">
@@ -479,22 +483,22 @@
         <v>10</v>
       </c>
       <c r="B5" t="n">
-        <v>0.626737397097673</v>
+        <v>0.62678543767013</v>
       </c>
       <c r="C5" t="n">
-        <v>0.795905230694343</v>
+        <v>0.795531688544377</v>
       </c>
       <c r="D5" t="n">
-        <v>0.797539349565692</v>
+        <v>0.797422504232579</v>
       </c>
       <c r="E5" t="n">
-        <v>0.783617202168354</v>
+        <v>0.78358915943845</v>
       </c>
       <c r="F5" t="n">
-        <v>0.809114485254114</v>
+        <v>0.811669808071969</v>
       </c>
       <c r="G5" t="n">
-        <v>0.827928209773063</v>
+        <v>0.827928985628416</v>
       </c>
     </row>
     <row r="6">
@@ -502,22 +506,22 @@
         <v>11</v>
       </c>
       <c r="B6" t="n">
-        <v>0.619048959139948</v>
+        <v>0.619151190902255</v>
       </c>
       <c r="C6" t="n">
-        <v>0.873966469689942</v>
+        <v>0.874801725484302</v>
       </c>
       <c r="D6" t="n">
-        <v>0.895979258736217</v>
+        <v>0.895913525729749</v>
       </c>
       <c r="E6" t="n">
-        <v>0.857097937005426</v>
+        <v>0.857097803370111</v>
       </c>
       <c r="F6" t="n">
-        <v>0.912833772582112</v>
+        <v>0.91274070312304</v>
       </c>
       <c r="G6" t="n">
-        <v>0.868108589920199</v>
+        <v>0.868122871586071</v>
       </c>
     </row>
     <row r="7">
@@ -525,22 +529,22 @@
         <v>12</v>
       </c>
       <c r="B7" t="n">
-        <v>0.463168837329091</v>
+        <v>0.46333575494323</v>
       </c>
       <c r="C7" t="n">
-        <v>0.623079158034858</v>
+        <v>0.621065025534817</v>
       </c>
       <c r="D7" t="n">
-        <v>0.581562238065519</v>
+        <v>0.581434341080065</v>
       </c>
       <c r="E7" t="n">
-        <v>0.621347776116407</v>
+        <v>0.621313531546367</v>
       </c>
       <c r="F7" t="n">
-        <v>0.664711397877061</v>
+        <v>0.648735078584288</v>
       </c>
       <c r="G7" t="n">
-        <v>0.667396438072881</v>
+        <v>0.667407611854691</v>
       </c>
     </row>
   </sheetData>
